--- a/Règle salariale (hr.salary.rule).xlsx
+++ b/Règle salariale (hr.salary.rule).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="146">
   <si>
     <t>Catégorie</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Default Structure Rules Set (48)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>27.349999999999998</t>
   </si>
   <si>
     <t>Basique</t>
@@ -181,22 +187,211 @@
     <t>Indemnite de Risque</t>
   </si>
   <si>
+    <t>FH_SUPP</t>
+  </si>
+  <si>
+    <t>FORFAIT HEURE SUPPLEMENTAIRE</t>
+  </si>
+  <si>
+    <t>IND_OUT</t>
+  </si>
+  <si>
+    <t>Indemnite d'Outillage</t>
+  </si>
+  <si>
+    <t>PR_CAI</t>
+  </si>
+  <si>
+    <t>Prime de Caisse</t>
+  </si>
+  <si>
+    <t>EAU</t>
+  </si>
+  <si>
+    <t>ELECT</t>
+  </si>
+  <si>
+    <t>Electricite</t>
+  </si>
+  <si>
+    <t>NOURIT</t>
+  </si>
+  <si>
+    <t>NOURITURE</t>
+  </si>
+  <si>
+    <t>VEHIC</t>
+  </si>
+  <si>
+    <t>VEHICULE</t>
+  </si>
+  <si>
+    <t>IND_LAIT</t>
+  </si>
+  <si>
+    <t>Indemnite de Lait</t>
+  </si>
+  <si>
+    <t>LOGEME</t>
+  </si>
+  <si>
+    <t>LOGEMENT</t>
+  </si>
+  <si>
+    <t>IND_LIC</t>
+  </si>
+  <si>
+    <t>Indemnite de Licenciement</t>
+  </si>
+  <si>
+    <t>PR_SP</t>
+  </si>
+  <si>
+    <t>PRIME SPECIALE</t>
+  </si>
+  <si>
+    <t>IND_PAN_NUIT</t>
+  </si>
+  <si>
+    <t>Indemnite de Panier de Nuit</t>
+  </si>
+  <si>
+    <t>PR_INT</t>
+  </si>
+  <si>
+    <t>Prime d'Interime</t>
+  </si>
+  <si>
+    <t>PR_TECH</t>
+  </si>
+  <si>
+    <t>Prime de Technicite</t>
+  </si>
+  <si>
+    <t>PR_REND</t>
+  </si>
+  <si>
+    <t>Prime de Rendement</t>
+  </si>
+  <si>
+    <t>PR_DA</t>
+  </si>
+  <si>
+    <t>Prime D'Assuite</t>
+  </si>
+  <si>
+    <t>CON_PAY</t>
+  </si>
+  <si>
+    <t>Conges Payes</t>
+  </si>
+  <si>
+    <t>result = inputs.get('CON_PAY').amount if inputs.get('CON_PAY') else 0</t>
+  </si>
+  <si>
+    <t>SURSALAIRE</t>
+  </si>
+  <si>
+    <t>Sursalaire</t>
+  </si>
+  <si>
+    <t>PR_NONACC</t>
+  </si>
+  <si>
+    <t>Prime de non Accident</t>
+  </si>
+  <si>
+    <t>PR_RESP</t>
+  </si>
+  <si>
+    <t>Prime de Responsabilite</t>
+  </si>
+  <si>
+    <t>PR_ANC</t>
+  </si>
+  <si>
+    <t>Prime d'anciennete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+today = date.today()
+# Vérifier si l'employé a un contrat avec une date de début
+if contract.date_start:
+    # Calcul de l'ancienneté en années
+    date_start = contract.date_start
+    anciennete = today.year - date_start.year - ((today.month, today.day) &lt; (date_start.month, date_start.day))
+    # Appliquer la règle : après 2 ans, 4% du salaire brut, puis +2% par année supplémentaire
+    if anciennete &gt;= 2:
+        pourcentage = 4 + (anciennete - 2) * 2
+        result = contract.wage * pourcentage / 100  # Calcul du montant
+        result = 0
+    else:
+        result = 0  # Pas de prime si ancienneté ≤ 2 ans
+else:
+    result = 0  # Pas de contrat ou pas de date de début
+</t>
+  </si>
+  <si>
+    <t>IND_TRANSP</t>
+  </si>
+  <si>
+    <t>Indemnite  de Transport</t>
+  </si>
+  <si>
+    <t>Brut</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Total Brut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+result = categories['BASIC'] + categories['ALW']
+            </t>
+  </si>
+  <si>
+    <t>PR_BO_SEP</t>
+  </si>
+  <si>
+    <t>Prime de Bonne separation</t>
+  </si>
+  <si>
+    <t>IND_FIN_C</t>
+  </si>
+  <si>
+    <t>Indemnite Fin de Carriere</t>
+  </si>
+  <si>
+    <t>taxable</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Salaire Cotisable</t>
+  </si>
+  <si>
+    <t>result = TB - IND_REPR - IND_TRANSP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Salaire Taxable</t>
+  </si>
+  <si>
+    <t>result = TB</t>
+  </si>
+  <si>
     <t>Déduction</t>
   </si>
   <si>
-    <t>CNPS_S</t>
-  </si>
-  <si>
-    <t>Retenue CNPS (PV)</t>
-  </si>
-  <si>
-    <t>result = brut - IND_TRANSP</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Crédit Foncier</t>
+    <t>ACC_T</t>
+  </si>
+  <si>
+    <t>Accident de Travail (patron)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -213,7 +408,19 @@
 result = contract.wage * 0.10</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>CNPS_S</t>
+  </si>
+  <si>
+    <t>Retenue CNPS (PV)</t>
+  </si>
+  <si>
+    <t>result = brut - IND_TRANSP</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Crédit Foncier</t>
   </si>
   <si>
     <t>CRTV</t>
@@ -257,214 +464,10 @@
     <t>Crédit Foncier (Patronnale)</t>
   </si>
   <si>
-    <t>brut</t>
-  </si>
-  <si>
     <t>FNE</t>
   </si>
   <si>
     <t>Fonds National Emploi (patron)</t>
-  </si>
-  <si>
-    <t>FH_SUPP</t>
-  </si>
-  <si>
-    <t>FORFAIT HEURE SUPPLEMENTAIRE</t>
-  </si>
-  <si>
-    <t>IND_OUT</t>
-  </si>
-  <si>
-    <t>Indemnite d'Outillage</t>
-  </si>
-  <si>
-    <t>PR_CAI</t>
-  </si>
-  <si>
-    <t>Prime de Caisse</t>
-  </si>
-  <si>
-    <t>EAU</t>
-  </si>
-  <si>
-    <t>ELECT</t>
-  </si>
-  <si>
-    <t>Electricite</t>
-  </si>
-  <si>
-    <t>NOURIT</t>
-  </si>
-  <si>
-    <t>NOURITURE</t>
-  </si>
-  <si>
-    <t>VEHIC</t>
-  </si>
-  <si>
-    <t>VEHICULE</t>
-  </si>
-  <si>
-    <t>IND_LAIT</t>
-  </si>
-  <si>
-    <t>Indemnite de Lait</t>
-  </si>
-  <si>
-    <t>LOGEME</t>
-  </si>
-  <si>
-    <t>LOGEMENT</t>
-  </si>
-  <si>
-    <t>IND_LIC</t>
-  </si>
-  <si>
-    <t>Indemnite de Licenciement</t>
-  </si>
-  <si>
-    <t>PR_SP</t>
-  </si>
-  <si>
-    <t>PRIME SPECIALE</t>
-  </si>
-  <si>
-    <t>IND_PAN_NUIT</t>
-  </si>
-  <si>
-    <t>Indemnite de Panier de Nuit</t>
-  </si>
-  <si>
-    <t>PR_INT</t>
-  </si>
-  <si>
-    <t>Prime d'Interime</t>
-  </si>
-  <si>
-    <t>PR_TECH</t>
-  </si>
-  <si>
-    <t>Prime de Technicite</t>
-  </si>
-  <si>
-    <t>PR_REND</t>
-  </si>
-  <si>
-    <t>Prime de Rendement</t>
-  </si>
-  <si>
-    <t>PR_DA</t>
-  </si>
-  <si>
-    <t>Prime D'Assuite</t>
-  </si>
-  <si>
-    <t>CON_PAY</t>
-  </si>
-  <si>
-    <t>Conges Payes</t>
-  </si>
-  <si>
-    <t>result = inputs.get('CON_PAY').amount if inputs.get('CON_PAY') else 0</t>
-  </si>
-  <si>
-    <t>SURSALAIRE</t>
-  </si>
-  <si>
-    <t>Sursalaire</t>
-  </si>
-  <si>
-    <t>PR_NONACC</t>
-  </si>
-  <si>
-    <t>Prime de non Accident</t>
-  </si>
-  <si>
-    <t>PR_RESP</t>
-  </si>
-  <si>
-    <t>Prime de Responsabilite</t>
-  </si>
-  <si>
-    <t>PR_ANC</t>
-  </si>
-  <si>
-    <t>Prime d'anciennete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-today = date.today()
-# Vérifier si l'employé a un contrat avec une date de début
-if contract.date_start:
-    # Calcul de l'ancienneté en années
-    date_start = contract.date_start
-    anciennete = today.year - date_start.year - ((today.month, today.day) &lt; (date_start.month, date_start.day))
-    # Appliquer la règle : après 2 ans, 4% du salaire brut, puis +2% par année supplémentaire
-    if anciennete &gt;= 2:
-        pourcentage = 4 + (anciennete - 2) * 2
-        result = contract.wage * pourcentage / 100  # Calcul du montant
-        result = 0
-    else:
-        result = 0  # Pas de prime si ancienneté ≤ 2 ans
-else:
-    result = 0  # Pas de contrat ou pas de date de début
-</t>
-  </si>
-  <si>
-    <t>IND_TRANSP</t>
-  </si>
-  <si>
-    <t>Indemnite  de Transport</t>
-  </si>
-  <si>
-    <t>Brut</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>Total Brut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-result = categories['BASIC'] + categories['ALW']
-            </t>
-  </si>
-  <si>
-    <t>PR_BO_SEP</t>
-  </si>
-  <si>
-    <t>Prime de Bonne separation</t>
-  </si>
-  <si>
-    <t>IND_FIN_C</t>
-  </si>
-  <si>
-    <t>Indemnite Fin de Carriere</t>
-  </si>
-  <si>
-    <t>taxable</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Salaire Cotisable</t>
-  </si>
-  <si>
-    <t>result = TB - IND_REPR - IND_TRANSP</t>
-  </si>
-  <si>
-    <t>Salaire Taxable</t>
-  </si>
-  <si>
-    <t>result = TB</t>
-  </si>
-  <si>
-    <t>ACC_T</t>
-  </si>
-  <si>
-    <t>Accident de Travail (patron)</t>
   </si>
   <si>
     <t>ALL_F</t>
@@ -594,7 +597,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="2">
@@ -643,7 +645,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1017,18 +1019,18 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <v>0</v>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>23.15</v>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1036,35 +1038,35 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -1077,7 +1079,7 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>6</v>
@@ -1085,35 +1087,35 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -1126,7 +1128,7 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>9</v>
@@ -1134,35 +1136,35 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -1175,7 +1177,7 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>9</v>
@@ -1183,35 +1185,35 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -1224,7 +1226,7 @@
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>9</v>
@@ -1232,35 +1234,35 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1273,7 +1275,7 @@
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>9</v>
@@ -1281,35 +1283,35 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1322,7 +1324,7 @@
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>9</v>
@@ -1330,35 +1332,35 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1371,15 +1373,15 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>44</v>
@@ -1389,25 +1391,25 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1416,49 +1418,47 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1471,43 +1471,43 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1516,49 +1516,47 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -1567,49 +1565,47 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1622,7 +1618,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>9</v>
@@ -1630,35 +1626,35 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1671,7 +1667,7 @@
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>9</v>
@@ -1679,35 +1675,35 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -1720,7 +1716,7 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>9</v>
@@ -1728,35 +1724,35 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1769,7 +1765,7 @@
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>9</v>
@@ -1777,35 +1773,35 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1818,7 +1814,7 @@
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>9</v>
@@ -1826,35 +1822,35 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -1867,7 +1863,7 @@
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>9</v>
@@ -1875,35 +1871,35 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1916,7 +1912,7 @@
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>9</v>
@@ -1924,35 +1920,35 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1965,7 +1961,7 @@
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>9</v>
@@ -1973,35 +1969,35 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -2014,7 +2010,7 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>9</v>
@@ -2022,35 +2018,35 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -2063,7 +2059,7 @@
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>9</v>
@@ -2071,35 +2067,35 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="3">
         <v>21</v>
       </c>
-      <c r="F24" s="3">
-        <v>16</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>9</v>
@@ -2120,35 +2116,35 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -2161,43 +2157,43 @@
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -2210,7 +2206,7 @@
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>9</v>
@@ -2218,35 +2214,35 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -2259,7 +2255,7 @@
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>9</v>
@@ -2267,35 +2263,35 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -2308,7 +2304,7 @@
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>9</v>
@@ -2316,35 +2312,35 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2357,43 +2353,43 @@
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -2406,43 +2402,43 @@
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -2455,43 +2451,43 @@
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2504,7 +2500,7 @@
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>9</v>
@@ -2512,35 +2508,35 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2553,7 +2549,7 @@
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>9</v>
@@ -2561,7 +2557,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>96</v>
@@ -2571,25 +2567,25 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F34" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -2602,7 +2598,7 @@
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>6</v>
@@ -2610,7 +2606,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>99</v>
@@ -2620,25 +2616,25 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2651,43 +2647,43 @@
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F36" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -2696,47 +2692,49 @@
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="P36" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F37" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -2745,47 +2743,49 @@
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="P37" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F38" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -2794,47 +2794,49 @@
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P38" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>6</v>
@@ -2855,35 +2857,35 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F40" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -2892,47 +2894,49 @@
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="P40" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F41" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2941,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>13</v>
@@ -2955,35 +2959,35 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F42" s="3">
         <v>32</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2995,10 +2999,10 @@
         <v>3.7</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>13</v>
@@ -3006,35 +3010,35 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F43" s="3">
         <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3046,10 +3050,10 @@
         <v>4.2</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>13</v>
@@ -3057,35 +3061,35 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F44" s="3">
         <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3098,7 +3102,7 @@
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>6</v>
@@ -3106,35 +3110,35 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F45" s="3">
         <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3147,7 +3151,7 @@
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>6</v>
@@ -3155,35 +3159,35 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F46" s="3">
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3196,7 +3200,7 @@
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>6</v>
@@ -3204,35 +3208,35 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F47" s="3">
         <v>34</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3245,7 +3249,7 @@
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>6</v>
@@ -3253,35 +3257,35 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3">
         <v>35</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>6</v>
@@ -3302,35 +3306,35 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F49" s="3">
         <v>35</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3342,10 +3346,10 @@
         <v>10</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>13</v>
@@ -3353,35 +3357,35 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F50" s="3">
         <v>36</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -3394,7 +3398,7 @@
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>6</v>
